--- a/辅助表/理想数值2.xlsx
+++ b/辅助表/理想数值2.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="乘法战斗公式总结" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="189">
   <si>
     <t>属性分类</t>
     <rPh sb="0" eb="1">
@@ -1776,44 +1778,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其中0.5，100，135。为常数可填</t>
-    <rPh sb="0" eb="1">
-      <t>qi'zh</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>chang'shu</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>tian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个1为常数可填写</t>
-    <rPh sb="0" eb="1">
-      <t>liang'ge</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chang'shu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>tian'x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>if（f(破甲率)&lt;0,0,f(破甲率)）  其中1为常数可填写</t>
     <rPh sb="5" eb="6">
       <t>po'j'lv</t>
@@ -1894,7 +1858,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际命中率=f(命中等级)+命中率</t>
+    <t>实际反击率=f(反击等级)+反击率</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>f'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lv</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>f'j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>deng'j</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>f'j</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际暴击率=f(暴击等级)+暴击率</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lv</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bao'j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>deng'j</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bao'j</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际连击率=f(连击等级)+连击率</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lv</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lian'ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>deng'j</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>l'j</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际吸血率=f(吸血等级)+吸血率</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lv</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>deng'j</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡等级</t>
+    <rPh sb="2" eb="3">
+      <t>deng'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡率</t>
+    <rPh sb="2" eb="3">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定是否命中</t>
+    <rPh sb="0" eb="1">
+      <t>pan'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ming'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际命中率=（f(命中等级)+命中率）-（f(回避等级)+回避率）</t>
     <rPh sb="0" eb="1">
       <t>shi'j</t>
     </rPh>
@@ -1904,165 +1986,845 @@
     <rPh sb="4" eb="5">
       <t>lv</t>
     </rPh>
+    <rPh sb="9" eb="10">
+      <t>ming'z</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>deng'j</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ming'z</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果命中判定是否暴击</t>
+    <rPh sb="0" eb="1">
+      <t>ru'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pan'd</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi'f</t>
+    </rPh>
     <rPh sb="8" eb="9">
-      <t>ming'z</t>
+      <t>bao'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <rPh sb="0" eb="1">
+      <t>bao'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不暴击</t>
+    <rPh sb="0" eb="1">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bao'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际爆伤率=f(爆伤等级)+爆伤率+1.5</t>
+    <rPh sb="0" eb="1">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lv</t>
     </rPh>
     <rPh sb="10" eb="11">
       <t>deng'j</t>
     </rPh>
-    <rPh sb="14" eb="15">
-      <t>ming'z</t>
-    </rPh>
     <rPh sb="16" eb="17">
       <t>lv</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际反击率=f(反击等级)+反击率</t>
+    <t>判定是否连击</t>
+    <rPh sb="0" eb="1">
+      <t>pan'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lian'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击</t>
+    <rPh sb="0" eb="1">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击成功时</t>
+    <rPh sb="0" eb="1">
+      <t>fan'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定是否反击（反击成功造成正在伤害的一半，反击不暴击，并且不触发格挡，反击）</t>
+    <rPh sb="0" eb="1">
+      <t>pan'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>s</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fan'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan'j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zao'c</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zheng'z</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>d</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yi'b</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血（对他人造成伤害时，按照伤害比率回复自身生命）</t>
+    <rPh sb="0" eb="1">
+      <t>xi'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ta'ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zao'c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>an'z</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bi'l</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>hui'f</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zi'shen</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>sheng'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定是否格挡（格挡成功则受到的伤害减半）</t>
+    <rPh sb="0" eb="1">
+      <t>pan'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ge'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击判定成功造成第2次伤害。（伤害值为正常伤害的一半。连击伤害不可暴击，不可被反击）</t>
+    <rPh sb="0" eb="1">
+      <t>lian'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pan'd</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zao'c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zheng'c</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>d</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yi'ban</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>lian'j</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>bao'j</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>fan'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f（命中等级）=命中等级/(lv*1+命中等级）</t>
+  </si>
+  <si>
+    <t>f（回避等级）=回避等级/(lv*2+回避等级）</t>
+  </si>
+  <si>
+    <t>f（暴击等级）=暴击等级/(lv*8+暴击等级）</t>
+  </si>
+  <si>
+    <t>伤害=1*攻击己*(f(lv敌)/(f(lv敌)+1*防敌*f(破甲率己)))*f(免伤率敌)</t>
+  </si>
+  <si>
+    <t>f(lv)=lv^2*0.5+lv*100+135</t>
+  </si>
+  <si>
+    <t>伤害=1*攻击己*(f(lv敌)/(f(lv敌)+1*防敌*f(破甲率己)))*f(免伤率敌)*实际爆伤率</t>
+  </si>
+  <si>
+    <t>f（爆伤等级）=爆伤等级/(lv*7+爆伤等级）</t>
+  </si>
+  <si>
+    <t>f（连击等级）=连击等级/(lv*5+连击等级）</t>
+  </si>
+  <si>
+    <t>伤害=1*攻击己*(f(lv敌)/(f(lv敌)+1*防敌*f(破甲率己)))*f(免伤率敌)*0.5</t>
+  </si>
+  <si>
+    <t>f（格挡等级）=格挡等级/(lv*3+格挡等级）</t>
+  </si>
+  <si>
+    <t>f（反击等级）=反击等级/(lv*4+反击等级）</t>
+  </si>
+  <si>
+    <t>f（吸血等级）=吸血等级/(lv*6+吸血等级）</t>
+  </si>
+  <si>
+    <t>战力换算</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huan'shuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计点</t>
+    <rPh sb="0" eb="1">
+      <t>she'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中与闪避的关系</t>
+    <rPh sb="0" eb="1">
+      <t>ming'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shan'bi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guan'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色的命中都为100%</t>
+    <rPh sb="0" eb="1">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming'z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色本身可学闪避</t>
+    <rPh sb="0" eb="1">
+      <t>jiao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ben's</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shan'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常怪物无闪避</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guai'w</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shan'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论下战力怎么计算</t>
+    <rPh sb="0" eb="1">
+      <t>tao'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhan'l</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>z'm</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji'suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样前期玩家的攻击不会被闪避。</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qian'q</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan'j</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shan'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f(破甲率)=lv*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/(lv*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+破甲等级)-破甲率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f(免伤率)=lv*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/(lv*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+免伤等级)-免伤率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看需求做吧</t>
+    <rPh sb="0" eb="1">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xu'q</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ba</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1释放后可改变技能2的释放变为3技能</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gai'b</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>d</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff位置分为2总</t>
+    <rPh sb="4" eb="5">
+      <t>wei'z</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'w</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <rPh sb="0" eb="1">
+      <t>di'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌身上</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shen'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害=1*f（攻击己)*(f(lv敌)/(f(lv敌)+1*防敌*f(破甲率己)))*f(免伤率敌)+f(真实伤害己）</t>
+    <rPh sb="53" eb="54">
+      <t>zhen's</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f（攻击己）=攻击力*技能加成+力量*技能加成+技能额外攻击力</t>
+    <rPh sb="2" eb="3">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong'j'l</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jia'ch</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>li'l</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>jia'c</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ji'nen</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>e</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wai</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>gong'j'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f（真实伤害）=自身血量*技能比率+敌方血量*技能比率+真实伤害值</t>
+    <rPh sb="2" eb="3">
+      <t>zhen's</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi'shen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xue'l</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bi'l</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>di'f</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xue'l</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>bi'l</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zhen's</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害不可格挡不可闪避，不可反击，不可暴击</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ge'd</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shan'b</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu'ke</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fan'j</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bao'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际反震率=f(反震等级)+反震率</t>
     <rPh sb="0" eb="1">
       <t>shi'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>f'j</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>lv</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>f'j</t>
-    </rPh>
     <rPh sb="10" eb="11">
       <t>deng'j</t>
     </rPh>
-    <rPh sb="14" eb="15">
-      <t>f'j</t>
-    </rPh>
     <rPh sb="16" eb="17">
       <t>lv</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际暴击率=f(暴击等级)+暴击率</t>
-    <rPh sb="0" eb="1">
-      <t>shi'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bao'j</t>
+    <t>f（反震等级）=反震等级/(lv*6+反震等级）</t>
+  </si>
+  <si>
+    <t>反震（受到伤害时对攻击者造成受到伤害的比率。）</t>
+    <rPh sb="0" eb="1">
+      <t>fan'zhen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>lv</t>
+      <t>dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>bao'j</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>deng'j</t>
+      <t>dui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zao'c</t>
     </rPh>
     <rPh sb="14" eb="15">
-      <t>bao'j</t>
+      <t>shou'dao</t>
     </rPh>
     <rPh sb="16" eb="17">
-      <t>lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际连击率=f(连击等级)+连击率</t>
-    <rPh sb="0" eb="1">
-      <t>shi'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lian'ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>lv</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>lian'ji</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>deng'j</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>l'j</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际吸血率=f(吸血等级)+吸血率</t>
-    <rPh sb="0" eb="1">
-      <t>shi'ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>lv</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>deng'j</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际回避率=f(回避等级)+回避率</t>
-    <rPh sb="0" eb="1">
-      <t>shi'j</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>lv</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>deng'j</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f（回避等级）=</t>
-    <rPh sb="4" eb="5">
-      <t>denjg</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际爆伤率=f(爆伤等级)+爆伤率</t>
-    <rPh sb="0" eb="1">
-      <t>shi'j</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>lv</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>deng'j</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f（爆伤等级）=</t>
-    <rPh sb="4" eb="5">
-      <t>denjg</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
+      <t>shang'h</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>d</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bi'l</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2073,7 +2835,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2088,6 +2850,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体 (正文)"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2395,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2947,23 +3716,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:Z108"/>
+  <dimension ref="B1:AF108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" customWidth="1"/>
     <col min="19" max="19" width="13.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.15">
       <c r="M1" t="s">
         <v>121</v>
       </c>
@@ -2973,8 +3743,11 @@
       <c r="Y1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AE1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.15">
       <c r="M2">
         <v>0.5</v>
       </c>
@@ -2984,8 +3757,11 @@
       <c r="Y2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.15">
       <c r="M3" t="s">
         <v>122</v>
       </c>
@@ -2995,8 +3771,11 @@
       <c r="Y3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AE3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.15">
       <c r="H4" t="s">
         <v>124</v>
       </c>
@@ -3012,8 +3791,11 @@
       <c r="Y4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AE4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.15">
       <c r="H5" t="s">
         <v>125</v>
       </c>
@@ -3029,15 +3811,20 @@
       <c r="Y5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AE5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>126</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
       <c r="M6">
         <v>135</v>
       </c>
@@ -3047,25 +3834,25 @@
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.15">
       <c r="E7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C8" t="str">
-        <f>"伤害="&amp;I4&amp;"*"&amp;"攻击己*(f(lv敌)/(f(lv敌)+"&amp;I5&amp;"*"&amp;"防敌*f(破甲率己)))*f(免伤率敌)"</f>
-        <v>伤害=1*攻击己*(f(lv敌)/(f(lv敌)+1*防敌*f(破甲率己)))*f(免伤率敌)</v>
-      </c>
-      <c r="D8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
       <c r="K8" t="s">
         <v>117</v>
       </c>
@@ -3094,20 +3881,34 @@
         <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y8" t="s">
         <v>128</v>
       </c>
       <c r="Z8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.15">
       <c r="E9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
       <c r="K9">
         <v>1</v>
       </c>
@@ -3154,19 +3955,31 @@
         <f>Y9/(Y9+X9)</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="10" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C10" t="str">
-        <f>"f(lv)=lv^2*"&amp;M2&amp;"+lv*"&amp;M4&amp;"+"&amp;M6</f>
-        <v>f(lv)=lv^2*0.5+lv*100+135</v>
-      </c>
-      <c r="D10" t="s">
-        <v>129</v>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <f>AC9^2*AE$2+AC9*AE$4+AE$6</f>
+        <v>0.3</v>
+      </c>
+      <c r="AF9">
+        <f>AD9/(AE9+AD9)</f>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>141</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
       <c r="K10">
         <v>2</v>
       </c>
@@ -3213,10 +4026,25 @@
         <f t="shared" ref="Z10:Z73" si="6">Y10/(Y10+X10)</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="E11" s="2" t="s">
-        <v>83</v>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" ref="AE10:AE73" si="7">AC10^2*AE$2+AC10*AE$4+AE$6</f>
+        <v>0.6</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" ref="AF10:AF73" si="8">AD10/(AE10+AD10)</f>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="C11" t="str">
+        <f>"f（命中等级）=命中等级/(lv*"&amp;F6&amp;"+命中等级）"</f>
+        <v>f（命中等级）=命中等级/(lv*1+命中等级）</v>
       </c>
       <c r="F11" s="2"/>
       <c r="K11">
@@ -3265,17 +4093,28 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC11">
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="7"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.15">
       <c r="C12" t="str">
-        <f>"f(破甲率)=lv*"&amp;S4&amp;"/"&amp;"(lv*"&amp;S4&amp;"+破甲等级)-破甲率"</f>
-        <v>f(破甲率)=lv*1/(lv*1+破甲等级)-破甲率</v>
-      </c>
-      <c r="D12" t="s">
-        <v>131</v>
+        <f>"f（回避等级）=回避等级/(lv*"&amp;F7&amp;"+回避等级）"</f>
+        <v>f（回避等级）=回避等级/(lv*2+回避等级）</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F12" s="2"/>
       <c r="K12">
@@ -3324,18 +4163,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C13" t="str">
-        <f>"f(免伤率)=lv*"&amp;Y4&amp;"/"&amp;"(lv*"&amp;Y4&amp;"+免伤等级)-免伤率"</f>
-        <v>f(免伤率)=lv*4/(lv*4+免伤等级)-免伤率</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
+      <c r="AD12">
+        <v>4</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.15">
       <c r="F13" s="2"/>
       <c r="K13">
         <v>5</v>
@@ -3383,10 +4226,27 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC13">
+        <v>5</v>
+      </c>
+      <c r="AD13">
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2"/>
       <c r="K14">
@@ -3435,15 +4295,25 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="15" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC14">
+        <v>6</v>
+      </c>
+      <c r="AD14">
+        <v>6</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="7"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>135</v>
+      </c>
       <c r="K15">
         <v>7</v>
       </c>
@@ -3490,8 +4360,32 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="16" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC15">
+        <v>7</v>
+      </c>
+      <c r="AD15">
+        <v>7</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="7"/>
+        <v>2.1</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="C16" t="str">
+        <f>"f（暴击等级）=暴击等级/(lv*"&amp;F9&amp;"+暴击等级）"</f>
+        <v>f（暴击等级）=暴击等级/(lv*8+暴击等级）</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
       <c r="K16">
         <v>8</v>
       </c>
@@ -3538,8 +4432,28 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC16">
+        <v>8</v>
+      </c>
+      <c r="AD16">
+        <v>8</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="7"/>
+        <v>2.4</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
       <c r="K17">
         <v>9</v>
       </c>
@@ -3586,10 +4500,30 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC17">
+        <v>9</v>
+      </c>
+      <c r="AD17">
+        <v>9</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="7"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -3637,10 +4571,31 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>144</v>
+      <c r="AC18">
+        <v>10</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C19" t="str">
+        <f>"伤害="&amp;I4&amp;"*"&amp;"攻击己*(f(lv敌)/(f(lv敌)+"&amp;I5&amp;"*"&amp;"防敌*f(破甲率己)))*f(免伤率敌)"</f>
+        <v>伤害=1*攻击己*(f(lv敌)/(f(lv敌)+1*防敌*f(破甲率己)))*f(免伤率敌)</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="2">
+        <v>6</v>
       </c>
       <c r="K19">
         <v>11</v>
@@ -3688,8 +4643,26 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC19">
+        <v>11</v>
+      </c>
+      <c r="AD19">
+        <v>11</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="7"/>
+        <v>3.3</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C20" t="str">
+        <f>"f(lv)=lv^2*"&amp;M2&amp;"+lv*"&amp;M4&amp;"+"&amp;M6</f>
+        <v>f(lv)=lv^2*0.5+lv*100+135</v>
+      </c>
       <c r="K20">
         <v>12</v>
       </c>
@@ -3736,11 +4709,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>136</v>
-      </c>
+      <c r="AC20">
+        <v>12</v>
+      </c>
+      <c r="AD20">
+        <v>12</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="7"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K21">
         <v>13</v>
       </c>
@@ -3787,10 +4771,24 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC21">
+        <v>13</v>
+      </c>
+      <c r="AD21">
+        <v>13</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="7"/>
+        <v>3.9</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K22">
         <v>14</v>
@@ -3838,10 +4836,25 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
-        <v>141</v>
+      <c r="AC22">
+        <v>14</v>
+      </c>
+      <c r="AD22">
+        <v>14</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="7"/>
+        <v>4.2</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C23" t="str">
+        <f>"伤害="&amp;I4&amp;"*"&amp;"攻击己*(f(lv敌)/(f(lv敌)+"&amp;I5&amp;"*"&amp;"防敌*f(破甲率己)))*f(免伤率敌)*实际爆伤率"</f>
+        <v>伤害=1*攻击己*(f(lv敌)/(f(lv敌)+1*防敌*f(破甲率己)))*f(免伤率敌)*实际爆伤率</v>
       </c>
       <c r="K23">
         <v>15</v>
@@ -3889,10 +4902,24 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC23">
+        <v>15</v>
+      </c>
+      <c r="AD23">
+        <v>15</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K24">
         <v>16</v>
@@ -3940,10 +4967,25 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
-        <v>135</v>
+      <c r="AC24">
+        <v>16</v>
+      </c>
+      <c r="AD24">
+        <v>16</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="7"/>
+        <v>4.8</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C25" t="str">
+        <f>"f（爆伤等级）=爆伤等级/(lv*"&amp;F10&amp;"+爆伤等级）"</f>
+        <v>f（爆伤等级）=爆伤等级/(lv*7+爆伤等级）</v>
       </c>
       <c r="K25">
         <v>17</v>
@@ -3991,8 +5033,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC25">
+        <v>17</v>
+      </c>
+      <c r="AD25">
+        <v>17</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="7"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K26">
         <v>18</v>
       </c>
@@ -4039,10 +5095,28 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>137</v>
+      <c r="AC26">
+        <v>18</v>
+      </c>
+      <c r="AD26">
+        <v>18</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="7"/>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C27" t="str">
+        <f>"f(破甲率)=lv*"&amp;S4&amp;"/"&amp;"(lv*"&amp;S4&amp;"+破甲等级)-破甲率"</f>
+        <v>f(破甲率)=lv*1/(lv*1+破甲等级)-破甲率</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
       </c>
       <c r="K27">
         <v>19</v>
@@ -4090,8 +5164,29 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC27">
+        <v>19</v>
+      </c>
+      <c r="AD27">
+        <v>19</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="7"/>
+        <v>5.7</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C28" t="str">
+        <f>"f(免伤率)=lv*"&amp;Y4&amp;"/"&amp;"(lv*"&amp;Y4&amp;"+免伤等级)-免伤率"</f>
+        <v>f(免伤率)=lv*4/(lv*4+免伤等级)-免伤率</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
       <c r="K28">
         <v>20</v>
       </c>
@@ -4138,11 +5233,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>139</v>
-      </c>
+      <c r="AC28">
+        <v>20</v>
+      </c>
+      <c r="AD28">
+        <v>2</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K29">
         <v>21</v>
       </c>
@@ -4189,8 +5295,25 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC29">
+        <v>21</v>
+      </c>
+      <c r="AD29">
+        <v>21</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="7"/>
+        <v>6.3</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
       <c r="K30">
         <v>22</v>
       </c>
@@ -4237,10 +5360,24 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC30">
+        <v>22</v>
+      </c>
+      <c r="AD30">
+        <v>22</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="7"/>
+        <v>6.6</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K31">
         <v>23</v>
@@ -4288,8 +5425,26 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.15">
+      <c r="AC31">
+        <v>23</v>
+      </c>
+      <c r="AD31">
+        <v>23</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="7"/>
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C32" t="str">
+        <f>"f（连击等级）=连击等级/(lv*"&amp;F18&amp;"+连击等级）"</f>
+        <v>f（连击等级）=连击等级/(lv*5+连击等级）</v>
+      </c>
       <c r="K32">
         <v>24</v>
       </c>
@@ -4336,8 +5491,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="33" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC32">
+        <v>24</v>
+      </c>
+      <c r="AD32">
+        <v>24</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="7"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.15">
       <c r="K33">
         <v>25</v>
       </c>
@@ -4384,8 +5553,25 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="34" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC33">
+        <v>25</v>
+      </c>
+      <c r="AD33">
+        <v>25</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="7"/>
+        <v>7.5</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
       <c r="K34">
         <v>26</v>
       </c>
@@ -4432,8 +5618,26 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="35" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC34">
+        <v>26</v>
+      </c>
+      <c r="AD34">
+        <v>26</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="7"/>
+        <v>7.8</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="C35" t="str">
+        <f>"伤害="&amp;I4&amp;"*"&amp;"攻击己*(f(lv敌)/(f(lv敌)+"&amp;I5&amp;"*"&amp;"防敌*f(破甲率己)))*f(免伤率敌)*0.5"</f>
+        <v>伤害=1*攻击己*(f(lv敌)/(f(lv敌)+1*防敌*f(破甲率己)))*f(免伤率敌)*0.5</v>
+      </c>
       <c r="K35">
         <v>27</v>
       </c>
@@ -4480,8 +5684,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="36" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC35">
+        <v>27</v>
+      </c>
+      <c r="AD35">
+        <v>27</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="7"/>
+        <v>8.1</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.15">
       <c r="K36">
         <v>28</v>
       </c>
@@ -4528,8 +5746,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="37" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC36">
+        <v>28</v>
+      </c>
+      <c r="AD36">
+        <v>28</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="7"/>
+        <v>8.4</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.15">
       <c r="K37">
         <v>29</v>
       </c>
@@ -4576,8 +5808,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="38" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC37">
+        <v>29</v>
+      </c>
+      <c r="AD37">
+        <v>29</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.15">
       <c r="K38">
         <v>30</v>
       </c>
@@ -4624,8 +5870,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="39" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC38">
+        <v>30</v>
+      </c>
+      <c r="AD38">
+        <v>30</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.15">
       <c r="K39">
         <v>31</v>
       </c>
@@ -4672,8 +5932,28 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="40" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC39">
+        <v>31</v>
+      </c>
+      <c r="AD39">
+        <v>31</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="7"/>
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
       <c r="K40">
         <v>32</v>
       </c>
@@ -4720,8 +6000,25 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="41" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC40">
+        <v>32</v>
+      </c>
+      <c r="AD40">
+        <v>32</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="7"/>
+        <v>9.6</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
       <c r="K41">
         <v>33</v>
       </c>
@@ -4768,8 +6065,26 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="42" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC41">
+        <v>33</v>
+      </c>
+      <c r="AD41">
+        <v>33</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="7"/>
+        <v>9.9</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="C42" t="str">
+        <f>"f（格挡等级）=格挡等级/(lv*"&amp;F16&amp;"+格挡等级）"</f>
+        <v>f（格挡等级）=格挡等级/(lv*3+格挡等级）</v>
+      </c>
       <c r="K42">
         <v>34</v>
       </c>
@@ -4816,8 +6131,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="43" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC42">
+        <v>34</v>
+      </c>
+      <c r="AD42">
+        <v>34</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="7"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.15">
       <c r="K43">
         <v>35</v>
       </c>
@@ -4864,8 +6193,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="44" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC43">
+        <v>35</v>
+      </c>
+      <c r="AD43">
+        <v>35</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="7"/>
+        <v>10.5</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.15">
       <c r="K44">
         <v>36</v>
       </c>
@@ -4912,8 +6255,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="45" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC44">
+        <v>36</v>
+      </c>
+      <c r="AD44">
+        <v>36</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="7"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.15">
       <c r="K45">
         <v>37</v>
       </c>
@@ -4960,8 +6317,25 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="46" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC45">
+        <v>37</v>
+      </c>
+      <c r="AD45">
+        <v>37</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="7"/>
+        <v>11.1</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
       <c r="K46">
         <v>38</v>
       </c>
@@ -5008,8 +6382,25 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="47" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC46">
+        <v>38</v>
+      </c>
+      <c r="AD46">
+        <v>38</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="7"/>
+        <v>11.4</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
       <c r="K47">
         <v>39</v>
       </c>
@@ -5056,8 +6447,26 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="48" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC47">
+        <v>39</v>
+      </c>
+      <c r="AD47">
+        <v>39</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="7"/>
+        <v>11.7</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="C48" t="str">
+        <f>"f（反击等级）=反击等级/(lv*"&amp;F17&amp;"+反击等级）"</f>
+        <v>f（反击等级）=反击等级/(lv*4+反击等级）</v>
+      </c>
       <c r="K48">
         <v>40</v>
       </c>
@@ -5104,8 +6513,25 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="49" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC48">
+        <v>40</v>
+      </c>
+      <c r="AD48">
+        <v>40</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
       <c r="K49">
         <v>41</v>
       </c>
@@ -5152,8 +6578,26 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="50" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC49">
+        <v>41</v>
+      </c>
+      <c r="AD49">
+        <v>41</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="7"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C50" t="str">
+        <f>"伤害="&amp;I4&amp;"*"&amp;"攻击己*(f(lv敌)/(f(lv敌)+"&amp;I5&amp;"*"&amp;"防敌*f(破甲率己)))*f(免伤率敌)*0.5"</f>
+        <v>伤害=1*攻击己*(f(lv敌)/(f(lv敌)+1*防敌*f(破甲率己)))*f(免伤率敌)*0.5</v>
+      </c>
       <c r="K50">
         <v>42</v>
       </c>
@@ -5200,8 +6644,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="51" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC50">
+        <v>42</v>
+      </c>
+      <c r="AD50">
+        <v>42</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="7"/>
+        <v>12.6</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K51">
         <v>43</v>
       </c>
@@ -5248,8 +6706,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="52" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC51">
+        <v>43</v>
+      </c>
+      <c r="AD51">
+        <v>43</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="7"/>
+        <v>12.9</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K52">
         <v>44</v>
       </c>
@@ -5296,8 +6768,25 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="53" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC52">
+        <v>44</v>
+      </c>
+      <c r="AD52">
+        <v>44</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="7"/>
+        <v>13.2</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>150</v>
+      </c>
       <c r="K53">
         <v>45</v>
       </c>
@@ -5344,8 +6833,25 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="54" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC53">
+        <v>45</v>
+      </c>
+      <c r="AD53">
+        <v>45</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="7"/>
+        <v>13.5</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
       <c r="K54">
         <v>46</v>
       </c>
@@ -5392,8 +6898,26 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="55" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC54">
+        <v>46</v>
+      </c>
+      <c r="AD54">
+        <v>46</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="7"/>
+        <v>13.799999999999999</v>
+      </c>
+      <c r="AF54">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C55" t="str">
+        <f>"f（吸血等级）=吸血等级/(lv*"&amp;F19&amp;"+吸血等级）"</f>
+        <v>f（吸血等级）=吸血等级/(lv*6+吸血等级）</v>
+      </c>
       <c r="K55">
         <v>47</v>
       </c>
@@ -5440,8 +6964,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="56" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC55">
+        <v>47</v>
+      </c>
+      <c r="AD55">
+        <v>47</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="7"/>
+        <v>14.1</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K56">
         <v>48</v>
       </c>
@@ -5488,8 +7026,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="57" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC56">
+        <v>48</v>
+      </c>
+      <c r="AD56">
+        <v>48</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="7"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K57">
         <v>49</v>
       </c>
@@ -5536,8 +7088,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="58" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC57">
+        <v>49</v>
+      </c>
+      <c r="AD57">
+        <v>49</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="7"/>
+        <v>14.7</v>
+      </c>
+      <c r="AF57">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K58">
         <v>50</v>
       </c>
@@ -5584,8 +7150,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="59" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC58">
+        <v>50</v>
+      </c>
+      <c r="AD58">
+        <v>50</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K59">
         <v>51</v>
       </c>
@@ -5632,8 +7212,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="60" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC59">
+        <v>51</v>
+      </c>
+      <c r="AD59">
+        <v>51</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="7"/>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K60">
         <v>52</v>
       </c>
@@ -5680,8 +7274,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="61" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC60">
+        <v>52</v>
+      </c>
+      <c r="AD60">
+        <v>52</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="7"/>
+        <v>15.6</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K61">
         <v>53</v>
       </c>
@@ -5728,8 +7336,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="62" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC61">
+        <v>53</v>
+      </c>
+      <c r="AD61">
+        <v>53</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="7"/>
+        <v>15.899999999999999</v>
+      </c>
+      <c r="AF61">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K62">
         <v>54</v>
       </c>
@@ -5776,8 +7398,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="63" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC62">
+        <v>54</v>
+      </c>
+      <c r="AD62">
+        <v>54</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="7"/>
+        <v>16.2</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K63">
         <v>55</v>
       </c>
@@ -5824,8 +7460,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="64" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC63">
+        <v>55</v>
+      </c>
+      <c r="AD63">
+        <v>55</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="7"/>
+        <v>16.5</v>
+      </c>
+      <c r="AF63">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.15">
       <c r="K64">
         <v>56</v>
       </c>
@@ -5872,8 +7522,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="65" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC64">
+        <v>56</v>
+      </c>
+      <c r="AD64">
+        <v>56</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="7"/>
+        <v>16.8</v>
+      </c>
+      <c r="AF64">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="65" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K65">
         <v>57</v>
       </c>
@@ -5920,8 +7584,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="66" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC65">
+        <v>57</v>
+      </c>
+      <c r="AD65">
+        <v>57</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="7"/>
+        <v>17.099999999999998</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="66" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K66">
         <v>58</v>
       </c>
@@ -5968,8 +7646,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="67" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC66">
+        <v>58</v>
+      </c>
+      <c r="AD66">
+        <v>58</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="7"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AF66">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="67" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K67">
         <v>59</v>
       </c>
@@ -6016,8 +7708,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="68" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC67">
+        <v>59</v>
+      </c>
+      <c r="AD67">
+        <v>59</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" si="7"/>
+        <v>17.7</v>
+      </c>
+      <c r="AF67">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="68" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K68">
         <v>60</v>
       </c>
@@ -6064,8 +7770,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="69" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC68">
+        <v>60</v>
+      </c>
+      <c r="AD68">
+        <v>60</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="AF68">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="69" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K69">
         <v>61</v>
       </c>
@@ -6112,8 +7832,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="70" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC69">
+        <v>61</v>
+      </c>
+      <c r="AD69">
+        <v>61</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="7"/>
+        <v>18.3</v>
+      </c>
+      <c r="AF69">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="70" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K70">
         <v>62</v>
       </c>
@@ -6160,8 +7894,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="71" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC70">
+        <v>62</v>
+      </c>
+      <c r="AD70">
+        <v>62</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="7"/>
+        <v>18.599999999999998</v>
+      </c>
+      <c r="AF70">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="71" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K71">
         <v>63</v>
       </c>
@@ -6208,8 +7956,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="72" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC71">
+        <v>63</v>
+      </c>
+      <c r="AD71">
+        <v>63</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="7"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AF71">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="72" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K72">
         <v>64</v>
       </c>
@@ -6256,8 +8018,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="73" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC72">
+        <v>64</v>
+      </c>
+      <c r="AD72">
+        <v>64</v>
+      </c>
+      <c r="AE72">
+        <f t="shared" si="7"/>
+        <v>19.2</v>
+      </c>
+      <c r="AF72">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="73" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K73">
         <v>65</v>
       </c>
@@ -6304,8 +8080,22 @@
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="74" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC73">
+        <v>65</v>
+      </c>
+      <c r="AD73">
+        <v>65</v>
+      </c>
+      <c r="AE73">
+        <f t="shared" si="7"/>
+        <v>19.5</v>
+      </c>
+      <c r="AF73">
+        <f t="shared" si="8"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="74" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K74">
         <v>66</v>
       </c>
@@ -6313,15 +8103,15 @@
         <v>0.7</v>
       </c>
       <c r="M74">
-        <f t="shared" ref="M74:M108" si="7">K74^2*$M$2+K74*$M$4+$M$6</f>
+        <f t="shared" ref="M74:M108" si="9">K74^2*$M$2+K74*$M$4+$M$6</f>
         <v>8913</v>
       </c>
       <c r="N74">
-        <f t="shared" ref="N74:N108" si="8">(1-L74)/L74*M74</f>
+        <f t="shared" ref="N74:N108" si="10">(1-L74)/L74*M74</f>
         <v>3819.8571428571436</v>
       </c>
       <c r="O74">
-        <f t="shared" ref="O74:O108" si="9">M74/(M74+N74)</f>
+        <f t="shared" ref="O74:O108" si="11">M74/(M74+N74)</f>
         <v>0.7</v>
       </c>
       <c r="Q74">
@@ -6331,11 +8121,11 @@
         <v>66</v>
       </c>
       <c r="S74">
-        <f t="shared" ref="S74:S108" si="10">Q74^2*S$2+Q74*S$4+S$6</f>
+        <f t="shared" ref="S74:S108" si="12">Q74^2*S$2+Q74*S$4+S$6</f>
         <v>66</v>
       </c>
       <c r="T74">
-        <f t="shared" ref="T74:T108" si="11">S74/(S74+R74)</f>
+        <f t="shared" ref="T74:T108" si="13">S74/(S74+R74)</f>
         <v>0.5</v>
       </c>
       <c r="W74">
@@ -6345,15 +8135,29 @@
         <v>66</v>
       </c>
       <c r="Y74">
-        <f t="shared" ref="Y74:Y108" si="12">W74^2*Y$2+W74*Y$4+Y$6</f>
+        <f t="shared" ref="Y74:Y108" si="14">W74^2*Y$2+W74*Y$4+Y$6</f>
         <v>264</v>
       </c>
       <c r="Z74">
-        <f t="shared" ref="Z74:Z108" si="13">Y74/(Y74+X74)</f>
+        <f t="shared" ref="Z74:Z108" si="15">Y74/(Y74+X74)</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="75" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC74">
+        <v>66</v>
+      </c>
+      <c r="AD74">
+        <v>66</v>
+      </c>
+      <c r="AE74">
+        <f t="shared" ref="AE74:AE108" si="16">AC74^2*AE$2+AC74*AE$4+AE$6</f>
+        <v>19.8</v>
+      </c>
+      <c r="AF74">
+        <f t="shared" ref="AF74:AF108" si="17">AD74/(AE74+AD74)</f>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="75" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K75">
         <v>67</v>
       </c>
@@ -6361,15 +8165,15 @@
         <v>0.7</v>
       </c>
       <c r="M75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9079.5</v>
       </c>
       <c r="N75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3891.2142857142867</v>
       </c>
       <c r="O75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q75">
@@ -6379,11 +8183,11 @@
         <v>67</v>
       </c>
       <c r="S75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="T75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W75">
@@ -6393,15 +8197,29 @@
         <v>67</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>268</v>
       </c>
       <c r="Z75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="76" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC75">
+        <v>67</v>
+      </c>
+      <c r="AD75">
+        <v>67</v>
+      </c>
+      <c r="AE75">
+        <f t="shared" si="16"/>
+        <v>20.099999999999998</v>
+      </c>
+      <c r="AF75">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="76" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K76">
         <v>68</v>
       </c>
@@ -6409,15 +8227,15 @@
         <v>0.7</v>
       </c>
       <c r="M76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9247</v>
       </c>
       <c r="N76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3963.0000000000009</v>
       </c>
       <c r="O76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q76">
@@ -6427,11 +8245,11 @@
         <v>68</v>
       </c>
       <c r="S76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="T76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W76">
@@ -6441,15 +8259,29 @@
         <v>68</v>
       </c>
       <c r="Y76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>272</v>
       </c>
       <c r="Z76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="77" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC76">
+        <v>68</v>
+      </c>
+      <c r="AD76">
+        <v>68</v>
+      </c>
+      <c r="AE76">
+        <f t="shared" si="16"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AF76">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="77" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K77">
         <v>69</v>
       </c>
@@ -6457,15 +8289,15 @@
         <v>0.7</v>
       </c>
       <c r="M77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9415.5</v>
       </c>
       <c r="N77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4035.2142857142867</v>
       </c>
       <c r="O77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q77">
@@ -6475,11 +8307,11 @@
         <v>69</v>
       </c>
       <c r="S77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="T77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W77">
@@ -6489,15 +8321,29 @@
         <v>69</v>
       </c>
       <c r="Y77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>276</v>
       </c>
       <c r="Z77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="78" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC77">
+        <v>69</v>
+      </c>
+      <c r="AD77">
+        <v>69</v>
+      </c>
+      <c r="AE77">
+        <f t="shared" si="16"/>
+        <v>20.7</v>
+      </c>
+      <c r="AF77">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="78" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K78">
         <v>70</v>
       </c>
@@ -6505,15 +8351,15 @@
         <v>0.7</v>
       </c>
       <c r="M78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9585</v>
       </c>
       <c r="N78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4107.857142857144</v>
       </c>
       <c r="O78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.69999999999999984</v>
       </c>
       <c r="Q78">
@@ -6523,11 +8369,11 @@
         <v>70</v>
       </c>
       <c r="S78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="T78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W78">
@@ -6537,15 +8383,29 @@
         <v>70</v>
       </c>
       <c r="Y78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>280</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="79" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC78">
+        <v>70</v>
+      </c>
+      <c r="AD78">
+        <v>70</v>
+      </c>
+      <c r="AE78">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="AF78">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="79" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K79">
         <v>71</v>
       </c>
@@ -6553,15 +8413,15 @@
         <v>0.7</v>
       </c>
       <c r="M79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9755.5</v>
       </c>
       <c r="N79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4180.9285714285725</v>
       </c>
       <c r="O79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q79">
@@ -6571,11 +8431,11 @@
         <v>71</v>
       </c>
       <c r="S79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="T79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W79">
@@ -6585,15 +8445,29 @@
         <v>71</v>
       </c>
       <c r="Y79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>284</v>
       </c>
       <c r="Z79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="80" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC79">
+        <v>71</v>
+      </c>
+      <c r="AD79">
+        <v>71</v>
+      </c>
+      <c r="AE79">
+        <f t="shared" si="16"/>
+        <v>21.3</v>
+      </c>
+      <c r="AF79">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="80" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K80">
         <v>72</v>
       </c>
@@ -6601,15 +8475,15 @@
         <v>0.7</v>
       </c>
       <c r="M80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9927</v>
       </c>
       <c r="N80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4254.4285714285725</v>
       </c>
       <c r="O80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q80">
@@ -6619,11 +8493,11 @@
         <v>72</v>
       </c>
       <c r="S80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="T80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W80">
@@ -6633,15 +8507,29 @@
         <v>72</v>
       </c>
       <c r="Y80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>288</v>
       </c>
       <c r="Z80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="81" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC80">
+        <v>72</v>
+      </c>
+      <c r="AD80">
+        <v>72</v>
+      </c>
+      <c r="AE80">
+        <f t="shared" si="16"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="AF80">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="81" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K81">
         <v>73</v>
       </c>
@@ -6649,15 +8537,15 @@
         <v>0.7</v>
       </c>
       <c r="M81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10099.5</v>
       </c>
       <c r="N81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4328.357142857144</v>
       </c>
       <c r="O81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.69999999999999984</v>
       </c>
       <c r="Q81">
@@ -6667,11 +8555,11 @@
         <v>73</v>
       </c>
       <c r="S81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
       <c r="T81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W81">
@@ -6681,15 +8569,29 @@
         <v>73</v>
       </c>
       <c r="Y81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>292</v>
       </c>
       <c r="Z81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="82" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC81">
+        <v>73</v>
+      </c>
+      <c r="AD81">
+        <v>73</v>
+      </c>
+      <c r="AE81">
+        <f t="shared" si="16"/>
+        <v>21.9</v>
+      </c>
+      <c r="AF81">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="82" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K82">
         <v>74</v>
       </c>
@@ -6697,15 +8599,15 @@
         <v>0.7</v>
       </c>
       <c r="M82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10273</v>
       </c>
       <c r="N82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4402.7142857142862</v>
       </c>
       <c r="O82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q82">
@@ -6715,11 +8617,11 @@
         <v>74</v>
       </c>
       <c r="S82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>74</v>
       </c>
       <c r="T82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W82">
@@ -6729,15 +8631,29 @@
         <v>74</v>
       </c>
       <c r="Y82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>296</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="83" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC82">
+        <v>74</v>
+      </c>
+      <c r="AD82">
+        <v>74</v>
+      </c>
+      <c r="AE82">
+        <f t="shared" si="16"/>
+        <v>22.2</v>
+      </c>
+      <c r="AF82">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="83" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K83">
         <v>75</v>
       </c>
@@ -6745,15 +8661,15 @@
         <v>0.7</v>
       </c>
       <c r="M83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10447.5</v>
       </c>
       <c r="N83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4477.5000000000009</v>
       </c>
       <c r="O83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q83">
@@ -6763,11 +8679,11 @@
         <v>75</v>
       </c>
       <c r="S83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="T83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W83">
@@ -6777,15 +8693,29 @@
         <v>75</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
       <c r="Z83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="84" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC83">
+        <v>75</v>
+      </c>
+      <c r="AD83">
+        <v>75</v>
+      </c>
+      <c r="AE83">
+        <f t="shared" si="16"/>
+        <v>22.5</v>
+      </c>
+      <c r="AF83">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="84" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K84">
         <v>76</v>
       </c>
@@ -6793,15 +8723,15 @@
         <v>0.7</v>
       </c>
       <c r="M84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10623</v>
       </c>
       <c r="N84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4552.7142857142862</v>
       </c>
       <c r="O84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q84">
@@ -6811,11 +8741,11 @@
         <v>76</v>
       </c>
       <c r="S84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>76</v>
       </c>
       <c r="T84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W84">
@@ -6825,15 +8755,29 @@
         <v>76</v>
       </c>
       <c r="Y84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
       <c r="Z84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="85" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC84">
+        <v>76</v>
+      </c>
+      <c r="AD84">
+        <v>76</v>
+      </c>
+      <c r="AE84">
+        <f t="shared" si="16"/>
+        <v>22.8</v>
+      </c>
+      <c r="AF84">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="85" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K85">
         <v>77</v>
       </c>
@@ -6841,15 +8785,15 @@
         <v>0.7</v>
       </c>
       <c r="M85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10799.5</v>
       </c>
       <c r="N85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4628.357142857144</v>
       </c>
       <c r="O85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q85">
@@ -6859,11 +8803,11 @@
         <v>77</v>
       </c>
       <c r="S85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
       <c r="T85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W85">
@@ -6873,15 +8817,29 @@
         <v>77</v>
       </c>
       <c r="Y85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>308</v>
       </c>
       <c r="Z85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="86" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC85">
+        <v>77</v>
+      </c>
+      <c r="AD85">
+        <v>77</v>
+      </c>
+      <c r="AE85">
+        <f t="shared" si="16"/>
+        <v>23.099999999999998</v>
+      </c>
+      <c r="AF85">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="86" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K86">
         <v>78</v>
       </c>
@@ -6889,15 +8847,15 @@
         <v>0.7</v>
       </c>
       <c r="M86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10977</v>
       </c>
       <c r="N86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4704.4285714285725</v>
       </c>
       <c r="O86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q86">
@@ -6907,11 +8865,11 @@
         <v>78</v>
       </c>
       <c r="S86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="T86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W86">
@@ -6921,15 +8879,29 @@
         <v>78</v>
       </c>
       <c r="Y86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>312</v>
       </c>
       <c r="Z86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="87" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC86">
+        <v>78</v>
+      </c>
+      <c r="AD86">
+        <v>78</v>
+      </c>
+      <c r="AE86">
+        <f t="shared" si="16"/>
+        <v>23.4</v>
+      </c>
+      <c r="AF86">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="87" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K87">
         <v>79</v>
       </c>
@@ -6937,15 +8909,15 @@
         <v>0.7</v>
       </c>
       <c r="M87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11155.5</v>
       </c>
       <c r="N87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4780.9285714285725</v>
       </c>
       <c r="O87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q87">
@@ -6955,11 +8927,11 @@
         <v>79</v>
       </c>
       <c r="S87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="T87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W87">
@@ -6969,15 +8941,29 @@
         <v>79</v>
       </c>
       <c r="Y87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>316</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="88" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC87">
+        <v>79</v>
+      </c>
+      <c r="AD87">
+        <v>79</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="16"/>
+        <v>23.7</v>
+      </c>
+      <c r="AF87">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="88" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K88">
         <v>80</v>
       </c>
@@ -6985,15 +8971,15 @@
         <v>0.7</v>
       </c>
       <c r="M88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11335</v>
       </c>
       <c r="N88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4857.857142857144</v>
       </c>
       <c r="O88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q88">
@@ -7003,11 +8989,11 @@
         <v>80</v>
       </c>
       <c r="S88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="T88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W88">
@@ -7017,15 +9003,29 @@
         <v>80</v>
       </c>
       <c r="Y88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>320</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="89" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC88">
+        <v>80</v>
+      </c>
+      <c r="AD88">
+        <v>80</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="AF88">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="89" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K89">
         <v>81</v>
       </c>
@@ -7033,15 +9033,15 @@
         <v>0.7</v>
       </c>
       <c r="M89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11515.5</v>
       </c>
       <c r="N89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4935.2142857142871</v>
       </c>
       <c r="O89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q89">
@@ -7051,11 +9051,11 @@
         <v>81</v>
       </c>
       <c r="S89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>81</v>
       </c>
       <c r="T89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W89">
@@ -7065,15 +9065,29 @@
         <v>81</v>
       </c>
       <c r="Y89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>324</v>
       </c>
       <c r="Z89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="90" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC89">
+        <v>81</v>
+      </c>
+      <c r="AD89">
+        <v>81</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="16"/>
+        <v>24.3</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="90" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K90">
         <v>82</v>
       </c>
@@ -7081,15 +9095,15 @@
         <v>0.7</v>
       </c>
       <c r="M90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11697</v>
       </c>
       <c r="N90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5013.0000000000009</v>
       </c>
       <c r="O90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q90">
@@ -7099,11 +9113,11 @@
         <v>82</v>
       </c>
       <c r="S90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
       <c r="T90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W90">
@@ -7113,15 +9127,29 @@
         <v>82</v>
       </c>
       <c r="Y90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>328</v>
       </c>
       <c r="Z90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="91" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC90">
+        <v>82</v>
+      </c>
+      <c r="AD90">
+        <v>82</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="16"/>
+        <v>24.599999999999998</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="91" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K91">
         <v>83</v>
       </c>
@@ -7129,15 +9157,15 @@
         <v>0.7</v>
       </c>
       <c r="M91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11879.5</v>
       </c>
       <c r="N91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5091.2142857142871</v>
       </c>
       <c r="O91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q91">
@@ -7147,11 +9175,11 @@
         <v>83</v>
       </c>
       <c r="S91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
       <c r="T91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W91">
@@ -7161,15 +9189,29 @@
         <v>83</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>332</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="92" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC91">
+        <v>83</v>
+      </c>
+      <c r="AD91">
+        <v>83</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="16"/>
+        <v>24.9</v>
+      </c>
+      <c r="AF91">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="92" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K92">
         <v>84</v>
       </c>
@@ -7177,15 +9219,15 @@
         <v>0.7</v>
       </c>
       <c r="M92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12063</v>
       </c>
       <c r="N92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5169.857142857144</v>
       </c>
       <c r="O92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q92">
@@ -7195,11 +9237,11 @@
         <v>84</v>
       </c>
       <c r="S92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="T92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W92">
@@ -7209,15 +9251,29 @@
         <v>84</v>
       </c>
       <c r="Y92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>336</v>
       </c>
       <c r="Z92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="93" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC92">
+        <v>84</v>
+      </c>
+      <c r="AD92">
+        <v>84</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="16"/>
+        <v>25.2</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="93" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K93">
         <v>85</v>
       </c>
@@ -7225,15 +9281,15 @@
         <v>0.7</v>
       </c>
       <c r="M93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12247.5</v>
       </c>
       <c r="N93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5248.9285714285725</v>
       </c>
       <c r="O93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q93">
@@ -7243,11 +9299,11 @@
         <v>85</v>
       </c>
       <c r="S93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
       <c r="T93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W93">
@@ -7257,15 +9313,29 @@
         <v>85</v>
       </c>
       <c r="Y93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>340</v>
       </c>
       <c r="Z93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="94" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC93">
+        <v>85</v>
+      </c>
+      <c r="AD93">
+        <v>85</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="16"/>
+        <v>25.5</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="94" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K94">
         <v>86</v>
       </c>
@@ -7273,15 +9343,15 @@
         <v>0.7</v>
       </c>
       <c r="M94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12433</v>
       </c>
       <c r="N94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5328.4285714285725</v>
       </c>
       <c r="O94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q94">
@@ -7291,11 +9361,11 @@
         <v>86</v>
       </c>
       <c r="S94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>86</v>
       </c>
       <c r="T94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W94">
@@ -7305,15 +9375,29 @@
         <v>86</v>
       </c>
       <c r="Y94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>344</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="95" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC94">
+        <v>86</v>
+      </c>
+      <c r="AD94">
+        <v>86</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="16"/>
+        <v>25.8</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="95" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K95">
         <v>87</v>
       </c>
@@ -7321,15 +9405,15 @@
         <v>0.7</v>
       </c>
       <c r="M95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12619.5</v>
       </c>
       <c r="N95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5408.357142857144</v>
       </c>
       <c r="O95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q95">
@@ -7339,11 +9423,11 @@
         <v>87</v>
       </c>
       <c r="S95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>87</v>
       </c>
       <c r="T95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W95">
@@ -7353,15 +9437,29 @@
         <v>87</v>
       </c>
       <c r="Y95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>348</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="96" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC95">
+        <v>87</v>
+      </c>
+      <c r="AD95">
+        <v>87</v>
+      </c>
+      <c r="AE95">
+        <f t="shared" si="16"/>
+        <v>26.099999999999998</v>
+      </c>
+      <c r="AF95">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="96" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K96">
         <v>88</v>
       </c>
@@ -7369,15 +9467,15 @@
         <v>0.7</v>
       </c>
       <c r="M96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12807</v>
       </c>
       <c r="N96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5488.7142857142871</v>
       </c>
       <c r="O96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q96">
@@ -7387,11 +9485,11 @@
         <v>88</v>
       </c>
       <c r="S96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
       <c r="T96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W96">
@@ -7401,15 +9499,29 @@
         <v>88</v>
       </c>
       <c r="Y96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>352</v>
       </c>
       <c r="Z96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="97" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC96">
+        <v>88</v>
+      </c>
+      <c r="AD96">
+        <v>88</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="16"/>
+        <v>26.4</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="97" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K97">
         <v>89</v>
       </c>
@@ -7417,15 +9529,15 @@
         <v>0.7</v>
       </c>
       <c r="M97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12995.5</v>
       </c>
       <c r="N97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5569.5000000000009</v>
       </c>
       <c r="O97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q97">
@@ -7435,11 +9547,11 @@
         <v>89</v>
       </c>
       <c r="S97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="T97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W97">
@@ -7449,15 +9561,29 @@
         <v>89</v>
       </c>
       <c r="Y97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>356</v>
       </c>
       <c r="Z97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="98" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC97">
+        <v>89</v>
+      </c>
+      <c r="AD97">
+        <v>89</v>
+      </c>
+      <c r="AE97">
+        <f t="shared" si="16"/>
+        <v>26.7</v>
+      </c>
+      <c r="AF97">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="98" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K98">
         <v>90</v>
       </c>
@@ -7465,15 +9591,15 @@
         <v>0.7</v>
       </c>
       <c r="M98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13185</v>
       </c>
       <c r="N98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5650.7142857142871</v>
       </c>
       <c r="O98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q98">
@@ -7483,11 +9609,11 @@
         <v>90</v>
       </c>
       <c r="S98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="T98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W98">
@@ -7497,15 +9623,29 @@
         <v>90</v>
       </c>
       <c r="Y98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>360</v>
       </c>
       <c r="Z98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="99" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC98">
+        <v>90</v>
+      </c>
+      <c r="AD98">
+        <v>90</v>
+      </c>
+      <c r="AE98">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="AF98">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="99" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K99">
         <v>91</v>
       </c>
@@ -7513,15 +9653,15 @@
         <v>0.7</v>
       </c>
       <c r="M99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13375.5</v>
       </c>
       <c r="N99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5732.357142857144</v>
       </c>
       <c r="O99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q99">
@@ -7531,11 +9671,11 @@
         <v>91</v>
       </c>
       <c r="S99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="T99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W99">
@@ -7545,15 +9685,29 @@
         <v>91</v>
       </c>
       <c r="Y99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>364</v>
       </c>
       <c r="Z99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="100" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC99">
+        <v>91</v>
+      </c>
+      <c r="AD99">
+        <v>91</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="16"/>
+        <v>27.3</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="100" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K100">
         <v>92</v>
       </c>
@@ -7561,15 +9715,15 @@
         <v>0.7</v>
       </c>
       <c r="M100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13567</v>
       </c>
       <c r="N100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5814.4285714285725</v>
       </c>
       <c r="O100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q100">
@@ -7579,11 +9733,11 @@
         <v>92</v>
       </c>
       <c r="S100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>92</v>
       </c>
       <c r="T100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W100">
@@ -7593,15 +9747,29 @@
         <v>92</v>
       </c>
       <c r="Y100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>368</v>
       </c>
       <c r="Z100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="101" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC100">
+        <v>92</v>
+      </c>
+      <c r="AD100">
+        <v>92</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="16"/>
+        <v>27.599999999999998</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="101" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K101">
         <v>93</v>
       </c>
@@ -7609,15 +9777,15 @@
         <v>0.7</v>
       </c>
       <c r="M101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13759.5</v>
       </c>
       <c r="N101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5896.9285714285725</v>
       </c>
       <c r="O101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q101">
@@ -7627,11 +9795,11 @@
         <v>93</v>
       </c>
       <c r="S101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="T101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W101">
@@ -7641,15 +9809,29 @@
         <v>93</v>
       </c>
       <c r="Y101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>372</v>
       </c>
       <c r="Z101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="102" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC101">
+        <v>93</v>
+      </c>
+      <c r="AD101">
+        <v>93</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="16"/>
+        <v>27.9</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="102" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K102">
         <v>94</v>
       </c>
@@ -7657,15 +9839,15 @@
         <v>0.7</v>
       </c>
       <c r="M102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13953</v>
       </c>
       <c r="N102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5979.857142857144</v>
       </c>
       <c r="O102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q102">
@@ -7675,11 +9857,11 @@
         <v>94</v>
       </c>
       <c r="S102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="T102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W102">
@@ -7689,15 +9871,29 @@
         <v>94</v>
       </c>
       <c r="Y102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>376</v>
       </c>
       <c r="Z102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="103" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC102">
+        <v>94</v>
+      </c>
+      <c r="AD102">
+        <v>94</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="16"/>
+        <v>28.2</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="103" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K103">
         <v>95</v>
       </c>
@@ -7705,15 +9901,15 @@
         <v>0.7</v>
       </c>
       <c r="M103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14147.5</v>
       </c>
       <c r="N103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6063.2142857142871</v>
       </c>
       <c r="O103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q103">
@@ -7723,11 +9919,11 @@
         <v>95</v>
       </c>
       <c r="S103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="T103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W103">
@@ -7737,15 +9933,29 @@
         <v>95</v>
       </c>
       <c r="Y103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>380</v>
       </c>
       <c r="Z103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="104" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC103">
+        <v>95</v>
+      </c>
+      <c r="AD103">
+        <v>95</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="16"/>
+        <v>28.5</v>
+      </c>
+      <c r="AF103">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="104" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K104">
         <v>96</v>
       </c>
@@ -7753,15 +9963,15 @@
         <v>0.7</v>
       </c>
       <c r="M104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14343</v>
       </c>
       <c r="N104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6147.0000000000009</v>
       </c>
       <c r="O104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q104">
@@ -7771,11 +9981,11 @@
         <v>96</v>
       </c>
       <c r="S104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="T104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W104">
@@ -7785,15 +9995,29 @@
         <v>96</v>
       </c>
       <c r="Y104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>384</v>
       </c>
       <c r="Z104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="105" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC104">
+        <v>96</v>
+      </c>
+      <c r="AD104">
+        <v>96</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="16"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="105" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K105">
         <v>97</v>
       </c>
@@ -7801,15 +10025,15 @@
         <v>0.7</v>
       </c>
       <c r="M105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14539.5</v>
       </c>
       <c r="N105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6231.2142857142871</v>
       </c>
       <c r="O105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q105">
@@ -7819,11 +10043,11 @@
         <v>97</v>
       </c>
       <c r="S105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="T105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W105">
@@ -7833,15 +10057,29 @@
         <v>97</v>
       </c>
       <c r="Y105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>388</v>
       </c>
       <c r="Z105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="106" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC105">
+        <v>97</v>
+      </c>
+      <c r="AD105">
+        <v>97</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="16"/>
+        <v>29.099999999999998</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="106" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K106">
         <v>98</v>
       </c>
@@ -7849,15 +10087,15 @@
         <v>0.7</v>
       </c>
       <c r="M106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14737</v>
       </c>
       <c r="N106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6315.857142857144</v>
       </c>
       <c r="O106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q106">
@@ -7867,11 +10105,11 @@
         <v>98</v>
       </c>
       <c r="S106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>98</v>
       </c>
       <c r="T106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W106">
@@ -7881,15 +10119,29 @@
         <v>98</v>
       </c>
       <c r="Y106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>392</v>
       </c>
       <c r="Z106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="107" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC106">
+        <v>98</v>
+      </c>
+      <c r="AD106">
+        <v>98</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="16"/>
+        <v>29.4</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="107" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K107">
         <v>99</v>
       </c>
@@ -7897,15 +10149,15 @@
         <v>0.7</v>
       </c>
       <c r="M107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14935.5</v>
       </c>
       <c r="N107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6400.9285714285725</v>
       </c>
       <c r="O107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q107">
@@ -7915,11 +10167,11 @@
         <v>99</v>
       </c>
       <c r="S107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="T107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W107">
@@ -7929,15 +10181,29 @@
         <v>99</v>
       </c>
       <c r="Y107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>396</v>
       </c>
       <c r="Z107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="108" spans="11:26" x14ac:dyDescent="0.15">
+      <c r="AC107">
+        <v>99</v>
+      </c>
+      <c r="AD107">
+        <v>99</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="16"/>
+        <v>29.7</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="108" spans="11:32" x14ac:dyDescent="0.15">
       <c r="K108">
         <v>100</v>
       </c>
@@ -7945,15 +10211,15 @@
         <v>0.7</v>
       </c>
       <c r="M108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15135</v>
       </c>
       <c r="N108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6486.4285714285725</v>
       </c>
       <c r="O108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="Q108">
@@ -7963,11 +10229,11 @@
         <v>100</v>
       </c>
       <c r="S108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="T108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="W108">
@@ -7977,12 +10243,26 @@
         <v>100</v>
       </c>
       <c r="Y108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="Z108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.8</v>
+      </c>
+      <c r="AC108">
+        <v>100</v>
+      </c>
+      <c r="AD108">
+        <v>100</v>
+      </c>
+      <c r="AE108">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="AF108">
+        <f t="shared" si="17"/>
+        <v>0.76923076923076927</v>
       </c>
     </row>
   </sheetData>
@@ -7990,4 +10270,305 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="84.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>